--- a/Missing_YPCs_tobefilled.xlsx
+++ b/Missing_YPCs_tobefilled.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JanviMadhani/thaw_star_catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2732FAE1-28B0-8443-92DE-893C49231270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04261B30-E14E-7249-9639-1FA317F37818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15580" xr2:uid="{A8BE78EB-16F6-394C-85EA-FE336FD8BA42}"/>
+    <workbookView xWindow="1160" yWindow="1460" windowWidth="27240" windowHeight="15580" xr2:uid="{A8BE78EB-16F6-394C-85EA-FE336FD8BA42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="27">
   <si>
     <t>Thaw Number</t>
   </si>
@@ -42,39 +42,15 @@
     <t>B</t>
   </si>
   <si>
-    <t>M A B ?</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? ck dec. </t>
-  </si>
-  <si>
-    <t>A B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C </t>
-  </si>
-  <si>
     <t xml:space="preserve">A   </t>
   </si>
   <si>
     <t xml:space="preserve">A  </t>
   </si>
   <si>
-    <t>M A C ?</t>
-  </si>
-  <si>
-    <t>M A</t>
-  </si>
-  <si>
-    <t>A B ?</t>
-  </si>
-  <si>
     <t>YPC Number</t>
   </si>
   <si>
@@ -118,6 +94,24 @@
   </si>
   <si>
     <t>Yale PM Position Angle</t>
+  </si>
+  <si>
+    <t>M (includes B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M </t>
+  </si>
+  <si>
+    <t>A (includes B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A (includes C) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M (includes A) </t>
+  </si>
+  <si>
+    <t>M (includes C)</t>
   </si>
 </sst>
 </file>
@@ -133,12 +127,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,9 +159,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,1763 +492,1762 @@
   <dimension ref="A1:P177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>856</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>1314</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="3">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="3">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="3">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="3">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="3">
+        <v>219</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="3">
+        <v>250</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="3">
+        <v>251</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="3">
+        <v>251</v>
+      </c>
+      <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C13" s="5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="3">
+        <v>339</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="2">
+        <v>438.01</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="3">
+        <v>443</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3">
+        <v>448</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3">
+        <v>647</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3">
+        <v>661</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3">
+        <v>671.1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
+        <v>673</v>
+      </c>
+      <c r="C21" s="5">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3">
+        <v>858</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3">
+        <v>891</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
+        <v>907</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3">
+        <v>935</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3">
+        <v>936</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
+        <v>937</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>974.02</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3">
+        <v>1161</v>
+      </c>
+      <c r="C29" s="5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
+        <v>1173</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3">
+        <v>1191</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3">
+        <v>1205</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3">
+        <v>1275</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3">
+        <v>1275</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3">
+        <v>1344</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3">
+        <v>1431</v>
+      </c>
+      <c r="C36" s="5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3">
+        <v>1435</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3">
+        <v>1442</v>
+      </c>
+      <c r="C38" s="5">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3">
+        <v>1456</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3">
+        <v>1590</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3">
+        <v>1651</v>
+      </c>
+      <c r="B41" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8">
+      <c r="C41" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3">
+        <v>1665</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3">
+        <v>1665</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3">
+        <v>1669</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="5">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3">
+        <v>1681</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3">
+        <v>1685</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3">
+        <v>1693</v>
+      </c>
+      <c r="C47" s="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3">
+        <v>1821</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3">
+        <v>1923</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3">
+        <v>1933</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="5">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3">
+        <v>1937</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3">
+        <v>1941</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C52" s="5">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3">
+        <v>1941</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3">
+        <v>1952</v>
+      </c>
+      <c r="B54" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10">
-        <v>219</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C54" s="5">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3">
+        <v>1997</v>
+      </c>
+      <c r="B55" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11">
-        <v>250</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12">
-        <v>339</v>
-      </c>
-      <c r="C12">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13">
-        <v>438.01</v>
-      </c>
-      <c r="C13">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14">
-        <v>443</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15">
-        <v>448</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C55" s="5">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3">
+        <v>2169</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3">
+        <v>2170</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3">
+        <v>2173</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3">
+        <v>2175</v>
+      </c>
+      <c r="B59" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>647</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>661</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>673</v>
-      </c>
-      <c r="C20">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>671.1</v>
-      </c>
-      <c r="C21">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>891</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>907</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>935</v>
-      </c>
-      <c r="C25">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>937</v>
-      </c>
-      <c r="C26">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>936</v>
-      </c>
-      <c r="C27">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>974.02</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>1161</v>
-      </c>
-      <c r="C29">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>1173</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>1191</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>1205</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>1344</v>
-      </c>
-      <c r="C35">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>1431</v>
-      </c>
-      <c r="C36">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>1435</v>
-      </c>
-      <c r="C37">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>1442</v>
-      </c>
-      <c r="C38">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>1456</v>
-      </c>
-      <c r="C39">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>1590</v>
-      </c>
-      <c r="C40">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>1665</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>1665</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>1669</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>1681</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>1685</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>1693</v>
-      </c>
-      <c r="C46">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>1821</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>1923</v>
-      </c>
-      <c r="C49">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>1933</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>1937</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>1941</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>1941</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
-        <v>1952</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
-        <v>1997</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
-        <v>2169</v>
-      </c>
-      <c r="C56">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
-        <v>2170</v>
-      </c>
-      <c r="C57">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
-        <v>2173</v>
-      </c>
-      <c r="C58">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
-        <v>2175</v>
-      </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59">
+      <c r="C59" s="5">
         <v>541</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60">
+      <c r="A60" s="3">
         <v>2175</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="5">
         <v>542</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61">
+      <c r="A61" s="3">
         <v>2178</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="C61" s="5">
         <v>869</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62">
+      <c r="A62" s="3">
         <v>2198</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="C62" s="5">
         <v>978</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63">
+      <c r="A63" s="3">
         <v>2198</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="5">
         <v>979</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64">
+      <c r="A64" s="3">
         <v>2202</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="5">
         <v>1330</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65">
+      <c r="A65" s="3">
         <v>2203</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="C65" s="5">
         <v>1331</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66">
+      <c r="A66" s="3">
         <v>2268.0100000000002</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="5">
         <v>1997</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67">
+      <c r="A67" s="3">
         <v>2386</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="5">
         <v>1092</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68">
+      <c r="A68" s="3">
         <v>2401</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="5">
         <v>1430</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69">
-        <v>2265</v>
-      </c>
-      <c r="B69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69">
+      <c r="A69" s="3">
+        <v>2625</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="5">
         <v>644</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70">
-        <v>2265</v>
-      </c>
-      <c r="B70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70">
+      <c r="A70" s="3">
+        <v>2625</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="5">
         <v>645</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71">
+      <c r="A71" s="3">
         <v>2800</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="5">
         <v>1710</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72">
+      <c r="A72" s="3">
         <v>2813</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="5">
         <v>1285</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73">
+      <c r="A73" s="3">
         <v>3010</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="C73" s="5">
         <v>1340</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74">
+      <c r="A74" s="3">
         <v>3020</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="5">
         <v>1711</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75">
+      <c r="A75" s="3">
         <v>3052</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="5">
         <v>1290</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76">
+      <c r="A76" s="3">
         <v>3140</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="5">
         <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77">
+      <c r="A77" s="3">
         <v>3214</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="5">
         <v>1038</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78">
+      <c r="A78" s="3">
         <v>3226</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="C78" s="5">
         <v>1528</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79">
+      <c r="A79" s="3">
         <v>3332</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="C79" s="5">
         <v>1168</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80">
+      <c r="A80" s="3">
         <v>3355.1</v>
       </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80">
+      <c r="B80" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="5">
         <v>1744</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81">
+      <c r="A81" s="3">
         <v>3410</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="C81" s="5">
         <v>1663</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82">
+      <c r="A82" s="3">
+        <v>3422</v>
+      </c>
+      <c r="C82" s="5">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="3">
+        <v>3435</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="3">
+        <v>3435</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="3">
+        <v>3438</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="3">
+        <v>3556</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="5">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="3">
+        <v>3649</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="5">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="3">
+        <v>3650</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="5">
         <v>1577</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
-        <v>3422</v>
-      </c>
-      <c r="C83">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
-        <v>3435</v>
-      </c>
-      <c r="B84" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
-        <v>3435</v>
-      </c>
-      <c r="B85" t="s">
-        <v>2</v>
-      </c>
-      <c r="C85">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
-        <v>3438</v>
-      </c>
-      <c r="B86" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
-        <v>3556</v>
-      </c>
-      <c r="B87" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
-        <v>3649</v>
-      </c>
-      <c r="B88" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88">
-        <v>790</v>
-      </c>
-    </row>
     <row r="89" spans="1:3">
-      <c r="A89">
+      <c r="A89" s="3">
         <v>3654</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="5">
         <v>616</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90">
+      <c r="A90" s="3">
         <v>3660</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="5">
         <v>939</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91">
+      <c r="A91" s="3">
         <v>3670</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="5">
         <v>1476</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92">
+      <c r="A92" s="3">
         <v>3685</v>
       </c>
       <c r="B92" t="s">
         <v>1</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="5">
         <v>690</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93">
+      <c r="A93" s="3">
         <v>3689</v>
       </c>
-      <c r="B93" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93">
+      <c r="B93" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94">
+      <c r="A94" s="3">
         <v>3887</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="C94" s="5">
         <v>1438</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95">
+      <c r="A95" s="3">
         <v>3890</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="C95" s="5">
         <v>492</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96">
+      <c r="A96" s="3">
         <v>3890</v>
       </c>
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96">
+      <c r="B96" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="5">
         <v>493</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97">
+      <c r="A97" s="3">
         <v>3891</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="5">
         <v>447</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98">
+      <c r="A98" s="3">
         <v>3891</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="5">
         <v>1666</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99">
+      <c r="A99" s="3">
         <v>3898</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="C99" s="5">
         <v>832</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100">
+      <c r="A100" s="3">
         <v>3970</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="5">
         <v>792</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101">
+      <c r="A101" s="3">
+        <v>4135</v>
+      </c>
+      <c r="C101" s="5">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="3">
         <v>4137</v>
       </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101">
+      <c r="B102" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="5">
         <v>1755</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102">
-        <v>4135</v>
-      </c>
-      <c r="C102">
-        <v>568</v>
-      </c>
-    </row>
     <row r="103" spans="1:3">
-      <c r="A103">
+      <c r="A103" s="3">
         <v>4140</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="5">
         <v>532</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104">
+      <c r="A104" s="3">
         <v>4144</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="5">
         <v>793</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105">
+      <c r="A105" s="3">
+        <v>4158</v>
+      </c>
+      <c r="C105" s="5">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="3">
         <v>4159</v>
       </c>
-      <c r="C105">
+      <c r="C106" s="5">
         <v>1296</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106">
-        <v>4158</v>
-      </c>
-      <c r="C106">
-        <v>1441</v>
-      </c>
-    </row>
     <row r="107" spans="1:3">
-      <c r="A107">
+      <c r="A107" s="3">
         <v>4161</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="5">
         <v>1543</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108">
+      <c r="A108" s="3">
         <v>4165</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="C108" s="5">
         <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109">
+      <c r="A109" s="3">
         <v>4171</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="5">
         <v>1672</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110">
+      <c r="A110" s="3">
         <v>4240</v>
       </c>
       <c r="B110" t="s">
         <v>1</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="5">
         <v>884</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111">
+      <c r="A111" s="3">
         <v>4322</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="C111" s="5">
         <v>1633</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112">
+      <c r="A112" s="3">
         <v>4323</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="C112" s="5">
         <v>1076</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113">
+      <c r="A113" s="3">
         <v>4406</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="C113" s="5">
         <v>840</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114">
+      <c r="A114" s="3">
         <v>4438</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="5">
         <v>887</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115">
+      <c r="A115" s="3">
         <v>4440</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="5">
         <v>2019</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116">
+      <c r="A116" s="3">
         <v>4449</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="5">
         <v>1247</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117">
+      <c r="A117" s="3">
         <v>4458</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="C117" s="5">
         <v>1959</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118">
+      <c r="A118" s="3">
         <v>4460.1000000000004</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="5">
         <v>1849</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119">
+      <c r="A119" s="3">
         <v>4463</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="5">
         <v>1189</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120">
+      <c r="A120" s="3">
+        <v>4467</v>
+      </c>
+      <c r="C120" s="5">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="3">
         <v>4468</v>
       </c>
-      <c r="B120" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120">
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="5">
         <v>1190</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121">
-        <v>4467</v>
-      </c>
-      <c r="C121">
-        <v>1444</v>
-      </c>
-    </row>
     <row r="122" spans="1:3">
-      <c r="A122">
+      <c r="A122" s="3">
         <v>4471</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="5">
         <v>1960</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123">
+      <c r="A123" s="3">
         <v>4474</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="5">
         <v>497</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124">
+      <c r="A124" s="3">
         <v>4474</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="C124" s="5">
         <v>498</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125">
+      <c r="A125" s="3">
+        <v>4476</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="5">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="3">
         <v>4478</v>
       </c>
-      <c r="B125" t="s">
-        <v>4</v>
-      </c>
-      <c r="C125">
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="5">
         <v>841</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126">
-        <v>4476</v>
-      </c>
-      <c r="B126" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126">
-        <v>1352</v>
-      </c>
-    </row>
     <row r="127" spans="1:3">
-      <c r="A127">
+      <c r="A127" s="3">
         <v>4483</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="5">
         <v>576</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128">
+      <c r="A128" s="3">
         <v>4483</v>
       </c>
       <c r="B128" t="s">
-        <v>4</v>
-      </c>
-      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="C128" s="5">
         <v>577</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129">
+      <c r="A129" s="3">
         <v>4580</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="5">
         <v>1635</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130">
+      <c r="A130" s="3">
         <v>4593</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="C130" s="5">
         <v>580</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131">
+      <c r="A131" s="3">
         <v>4620</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="C131" s="5">
         <v>1079</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132">
+      <c r="A132" s="3">
         <v>4722</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="5">
         <v>891</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133">
+      <c r="A133" s="3">
         <v>4765</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="5">
         <v>892</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134">
+      <c r="A134" s="3">
         <v>4766</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="5">
         <v>1252</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135">
+      <c r="A135" s="3">
+        <v>4769</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="5">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="3">
         <v>4770</v>
       </c>
-      <c r="C135">
+      <c r="C136" s="5">
         <v>1106</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136">
-        <v>4769</v>
-      </c>
-      <c r="B136" t="s">
-        <v>4</v>
-      </c>
-      <c r="C136">
-        <v>1107</v>
-      </c>
-    </row>
     <row r="137" spans="1:3">
-      <c r="A137">
+      <c r="A137" s="3">
         <v>4779</v>
       </c>
       <c r="B137" t="s">
-        <v>4</v>
-      </c>
-      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="C137" s="5">
         <v>1199</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138">
+      <c r="A138" s="3">
         <v>4783</v>
       </c>
       <c r="B138" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="C138" s="5">
         <v>507</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139">
+      <c r="A139" s="3">
         <v>4784</v>
       </c>
       <c r="B139" t="s">
         <v>1</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="5">
         <v>1054</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140">
+      <c r="A140" s="3">
+        <v>4790</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="5">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="3">
         <v>4793</v>
       </c>
-      <c r="B140" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140">
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="5">
         <v>763</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141">
-        <v>4790</v>
-      </c>
-      <c r="B141" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141">
-        <v>1447</v>
-      </c>
-    </row>
     <row r="142" spans="1:3">
-      <c r="A142">
+      <c r="A142" s="3">
         <v>4805</v>
       </c>
       <c r="B142" t="s">
         <v>2</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="5">
         <v>1001</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143">
+      <c r="A143" s="3">
         <v>4805</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
-      </c>
-      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="C143" s="5">
         <v>1002</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144">
+      <c r="A144" s="3">
+        <v>5086</v>
+      </c>
+      <c r="C144" s="5">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="3">
         <v>5088</v>
       </c>
-      <c r="B144" t="s">
-        <v>4</v>
-      </c>
-      <c r="C144">
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="5">
         <v>956</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145">
-        <v>5086</v>
-      </c>
-      <c r="C145">
-        <v>1257</v>
-      </c>
-    </row>
     <row r="146" spans="1:3">
-      <c r="A146">
+      <c r="A146" s="3">
         <v>5094</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="5">
         <v>1592</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147">
+      <c r="A147" s="3">
         <v>5098.1000000000004</v>
       </c>
       <c r="B147" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="C147" s="5">
         <v>1765</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148">
+      <c r="A148" s="3">
         <v>5107</v>
       </c>
       <c r="B148" t="s">
-        <v>4</v>
-      </c>
-      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="C148" s="5">
         <v>462</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149">
+      <c r="A149" s="3">
         <v>5332</v>
       </c>
       <c r="B149" t="s">
-        <v>4</v>
-      </c>
-      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="C149" s="5">
         <v>960</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150">
+      <c r="A150" s="3">
         <v>5335</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="5">
         <v>900</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151">
+      <c r="A151" s="3">
         <v>5337</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
-      </c>
-      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="C151" s="5">
         <v>773</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152">
+      <c r="A152" s="3">
         <v>5337</v>
       </c>
       <c r="B152" t="s">
         <v>2</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="5">
         <v>774</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153">
+      <c r="A153" s="3">
         <v>5341</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="5">
         <v>636</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154">
+      <c r="A154" s="3">
         <v>5342</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="C154" s="5">
         <v>1360</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155">
+      <c r="A155" s="3">
         <v>5348</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="5">
         <v>1645</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156">
+      <c r="A156" s="3">
         <v>5349</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="5">
         <v>1596</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157">
+      <c r="A157" s="3">
         <v>5356</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="5">
         <v>1085</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158">
+      <c r="A158" s="3">
         <v>5365</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="5">
         <v>1768</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159">
+      <c r="A159" s="3">
         <v>5370</v>
       </c>
       <c r="B159" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="C159" s="5">
         <v>397</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160">
+      <c r="A160" s="3">
+        <v>5375</v>
+      </c>
+      <c r="C160" s="5">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="3">
+        <v>5377</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="5">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="3">
         <v>5378</v>
       </c>
-      <c r="C160">
+      <c r="C162" s="5">
         <v>1009</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161">
-        <v>5377</v>
-      </c>
-      <c r="B161" t="s">
-        <v>4</v>
-      </c>
-      <c r="C161">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162">
+    <row r="163" spans="1:3">
+      <c r="A163" s="3">
         <v>5380</v>
       </c>
-      <c r="C162">
+      <c r="C163" s="5">
         <v>1206</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
-      <c r="A163">
-        <v>5375</v>
-      </c>
-      <c r="C163">
-        <v>852</v>
-      </c>
-    </row>
     <row r="164" spans="1:3">
-      <c r="A164">
+      <c r="A164" s="3">
         <v>5386</v>
       </c>
       <c r="B164" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="C164" s="5">
         <v>1061</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165">
+      <c r="A165" s="3">
         <v>5435</v>
       </c>
       <c r="B165" t="s">
         <v>2</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="5">
         <v>466</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166">
+      <c r="A166" s="3">
         <v>5435</v>
       </c>
       <c r="B166" t="s">
-        <v>4</v>
-      </c>
-      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="C166" s="5">
         <v>467</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167">
+      <c r="A167" s="3">
         <v>5462</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="5">
         <v>1597</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168">
+      <c r="A168" s="3">
         <v>5530</v>
       </c>
       <c r="B168" t="s">
-        <v>4</v>
-      </c>
-      <c r="C168">
+        <v>3</v>
+      </c>
+      <c r="C168" s="5">
         <v>1556</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169">
+      <c r="A169" s="3">
         <v>5530</v>
       </c>
       <c r="B169" t="s">
         <v>2</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="5">
         <v>1557</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170">
+      <c r="A170" s="3">
         <v>5594</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="5">
         <v>1559</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171">
+      <c r="A171" s="3">
         <v>5616</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="5">
         <v>591</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172">
+      <c r="A172" s="3">
         <v>5617</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="5">
         <v>2041</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173">
+      <c r="A173" s="3">
         <v>5677</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="5">
         <v>49</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174">
+      <c r="A174" s="3">
         <v>5756.1</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="5">
         <v>1808</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175">
+      <c r="A175" s="3">
         <v>5781</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="5">
         <v>1111</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176">
+      <c r="A176" s="3">
         <v>5781</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="5">
         <v>1112</v>
       </c>
     </row>
     <row r="177" spans="3:3">
-      <c r="C177">
+      <c r="C177" s="6">
         <v>643</v>
       </c>
     </row>
